--- a/threepopres/游戏配置.xlsx
+++ b/threepopres/游戏配置.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>gun_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,53 @@
   </si>
   <si>
     <t>gun_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左轮手枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_2_bullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shouqiang2</t>
+  </si>
+  <si>
+    <t>shouqiang1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小手枪子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左轮手枪子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,15 +434,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="24.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -405,8 +461,11 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -419,10 +478,67 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/threepopres/游戏配置.xlsx
+++ b/threepopres/游戏配置.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25060" windowHeight="15540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="武器名称" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="衣服装备的配置" sheetId="2" r:id="rId2"/>
+    <sheet name="物品配置" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
   <si>
     <t>gun_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,14 +95,218 @@
   </si>
   <si>
     <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloth_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloth_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloth_2</t>
+  </si>
+  <si>
+    <t>cloth_3</t>
+  </si>
+  <si>
+    <t>cloth_4</t>
+  </si>
+  <si>
+    <t>cloth_5</t>
+  </si>
+  <si>
+    <t>cloth_6</t>
+  </si>
+  <si>
+    <t>cloth_7</t>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破旧的衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干净整洁的衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尊贵华丽的衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藤甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁盔甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮盔甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精致铁盔甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maozi0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maozi1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maozi2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dunpai1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dunpai3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dunpai2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kuijia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thing_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thing_2</t>
+  </si>
+  <si>
+    <t>thing_3</t>
+  </si>
+  <si>
+    <t>thing_4</t>
+  </si>
+  <si>
+    <t>thing_5</t>
+  </si>
+  <si>
+    <t>thing_6</t>
+  </si>
+  <si>
+    <t>thing_7</t>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄色药水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色药水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色药水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>safe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chengzi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dahuangyaoshui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hongpongguo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dapinglvyaoshui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qingpingguo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lanyaoshui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiangjao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiangzi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thing_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thing_8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +317,29 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -131,18 +363,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="5">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -433,19 +684,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="24.875" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -544,31 +795,352 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>